--- a/Analytics/I1/CrossBookings_i1.xlsx
+++ b/Analytics/I1/CrossBookings_i1.xlsx
@@ -85,70 +85,70 @@
     <t>Lazio</t>
   </si>
   <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
     <t>Bologna</t>
   </si>
   <si>
+    <t>Udinese</t>
+  </si>
+  <si>
     <t>Roma</t>
   </si>
   <si>
-    <t>Salernitana</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Verona</t>
-  </si>
-  <si>
     <t>Cagliari</t>
   </si>
   <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Juventus</t>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Inter</t>
   </si>
   <si>
     <t>Empoli</t>
   </si>
   <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
     <t>AwayTeam</t>
   </si>
   <si>
     <t>SUM("TCrossBookings")</t>
   </si>
   <si>
-    <t>SUM("TCrossBookings") / 38</t>
+    <t>SUM("TCrossBookings") / 11</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>19650.0</v>
+        <v>6400.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>17450.0</v>
+        <v>6300.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>17250.0</v>
+        <v>5275.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>15500.0</v>
+        <v>4800.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>13500.0</v>
+        <v>4725.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>13025.0</v>
+        <v>4500.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>12775.0</v>
+        <v>3900.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>12200.0</v>
+        <v>3450.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>11350.0</v>
+        <v>3200.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>11350.0</v>
+        <v>3200.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>11300.0</v>
+        <v>3050.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>10400.0</v>
+        <v>2900.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>9900.0</v>
+        <v>2450.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>9100.0</v>
+        <v>2300.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>8350.0</v>
+        <v>1900.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>7700.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>6450.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>6200.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>5350.0</v>
+        <v>1250.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>4650.0</v>
+        <v>950.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C2" t="n">
-        <v>23725.0</v>
+        <v>8150.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>16025.0</v>
+        <v>6975.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C4" t="n">
-        <v>14500.0</v>
+        <v>5050.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>13550.0</v>
+        <v>4200.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>12500.0</v>
+        <v>3900.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>12450.0</v>
+        <v>3700.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>12250.0</v>
+        <v>3400.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>11900.0</v>
+        <v>3375.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
-        <v>10950.0</v>
+        <v>3300.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C11" t="n">
-        <v>10800.0</v>
+        <v>3250.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C12" t="n">
-        <v>10500.0</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>9750.0</v>
+        <v>2650.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
-        <v>9750.0</v>
+        <v>2500.0</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>9550.0</v>
+        <v>2500.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>8850.0</v>
+        <v>2200.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C17" t="n">
-        <v>8200.0</v>
+        <v>2050.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C18" t="n">
-        <v>7950.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>6950.0</v>
+        <v>1350.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" t="n">
-        <v>6750.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C21" t="n">
-        <v>6550.0</v>
+        <v>1000.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>35075.0</v>
+        <v>13375.0</v>
       </c>
       <c r="D2" t="n">
-        <v>923.0263157894736</v>
+        <v>1215.909090909091</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>31900.0</v>
+        <v>9675.0</v>
       </c>
       <c r="D3" t="n">
-        <v>839.4736842105264</v>
+        <v>879.5454545454545</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>31000.0</v>
+        <v>9650.0</v>
       </c>
       <c r="D4" t="n">
-        <v>815.7894736842105</v>
+        <v>877.2727272727273</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>29525.0</v>
+        <v>9000.0</v>
       </c>
       <c r="D5" t="n">
-        <v>776.9736842105264</v>
+        <v>818.1818181818181</v>
       </c>
     </row>
     <row r="6">
@@ -759,10 +759,10 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>29150.0</v>
+        <v>8975.0</v>
       </c>
       <c r="D6" t="n">
-        <v>767.1052631578947</v>
+        <v>815.9090909090909</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
-        <v>24900.0</v>
+        <v>6950.0</v>
       </c>
       <c r="D7" t="n">
-        <v>655.2631578947369</v>
+        <v>631.8181818181819</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>24700.0</v>
+        <v>6775.0</v>
       </c>
       <c r="D8" t="n">
-        <v>650.0</v>
+        <v>615.9090909090909</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" t="n">
-        <v>23275.0</v>
+        <v>6500.0</v>
       </c>
       <c r="D9" t="n">
-        <v>612.5</v>
+        <v>590.9090909090909</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>22775.0</v>
+        <v>6400.0</v>
       </c>
       <c r="D10" t="n">
-        <v>599.3421052631579</v>
+        <v>581.8181818181819</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C11" t="n">
-        <v>22050.0</v>
+        <v>6350.0</v>
       </c>
       <c r="D11" t="n">
-        <v>580.2631578947369</v>
+        <v>577.2727272727273</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
-        <v>21100.0</v>
+        <v>6100.0</v>
       </c>
       <c r="D12" t="n">
-        <v>555.2631578947369</v>
+        <v>554.5454545454545</v>
       </c>
     </row>
     <row r="13">
@@ -857,10 +857,10 @@
         <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>20850.0</v>
+        <v>5550.0</v>
       </c>
       <c r="D13" t="n">
-        <v>548.6842105263158</v>
+        <v>504.54545454545456</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
-        <v>19900.0</v>
+        <v>5500.0</v>
       </c>
       <c r="D14" t="n">
-        <v>523.6842105263158</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>19300.0</v>
+        <v>5400.0</v>
       </c>
       <c r="D15" t="n">
-        <v>507.89473684210526</v>
+        <v>490.90909090909093</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" t="n">
-        <v>18650.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D16" t="n">
-        <v>490.7894736842105</v>
+        <v>454.54545454545456</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>16650.0</v>
+        <v>4750.0</v>
       </c>
       <c r="D17" t="n">
-        <v>438.1578947368421</v>
+        <v>431.8181818181818</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C18" t="n">
-        <v>16550.0</v>
+        <v>3950.0</v>
       </c>
       <c r="D18" t="n">
-        <v>435.5263157894737</v>
+        <v>359.09090909090907</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" t="n">
-        <v>13400.0</v>
+        <v>3900.0</v>
       </c>
       <c r="D19" t="n">
-        <v>352.63157894736844</v>
+        <v>354.54545454545456</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C20" t="n">
-        <v>13300.0</v>
+        <v>3900.0</v>
       </c>
       <c r="D20" t="n">
-        <v>350.0</v>
+        <v>354.54545454545456</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" t="n">
-        <v>12850.0</v>
+        <v>2600.0</v>
       </c>
       <c r="D21" t="n">
-        <v>338.1578947368421</v>
+        <v>236.36363636363637</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/I1/CrossBookings_i1.xlsx
+++ b/Analytics/I1/CrossBookings_i1.xlsx
@@ -91,55 +91,55 @@
     <t>Como</t>
   </si>
   <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
     <t>Fiorentina</t>
   </si>
   <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
     <t>Genoa</t>
   </si>
   <si>
     <t>Venezia</t>
   </si>
   <si>
+    <t>Milan</t>
+  </si>
+  <si>
     <t>Monza</t>
   </si>
   <si>
     <t>Torino</t>
   </si>
   <si>
-    <t>Milan</t>
-  </si>
-  <si>
     <t>Napoli</t>
   </si>
   <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
     <t>Verona</t>
   </si>
   <si>
     <t>Bologna</t>
   </si>
   <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
     <t>Cagliari</t>
   </si>
   <si>
+    <t>Empoli</t>
+  </si>
+  <si>
     <t>Atalanta</t>
   </si>
   <si>
     <t>Inter</t>
-  </si>
-  <si>
-    <t>Empoli</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>6400.0</v>
+        <v>8050.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>6300.0</v>
+        <v>7800.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>5275.0</v>
+        <v>6325.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>4800.0</v>
+        <v>6300.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>4725.0</v>
+        <v>5625.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>4500.0</v>
+        <v>5600.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>3900.0</v>
+        <v>4500.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>3450.0</v>
+        <v>4050.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>3200.0</v>
+        <v>4050.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>3200.0</v>
+        <v>3900.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>3050.0</v>
+        <v>3800.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>2900.0</v>
+        <v>3500.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>2450.0</v>
+        <v>3400.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>2300.0</v>
+        <v>3350.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>1900.0</v>
+        <v>3050.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>1600.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>1500.0</v>
+        <v>2600.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>1500.0</v>
+        <v>2150.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>1250.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>950.0</v>
+        <v>1350.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>8150.0</v>
+        <v>9275.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C3" t="n">
-        <v>6975.0</v>
+        <v>9150.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>5050.0</v>
+        <v>5950.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
-        <v>4200.0</v>
+        <v>5050.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>3900.0</v>
+        <v>5050.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
-        <v>3700.0</v>
+        <v>4750.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
-        <v>3400.0</v>
+        <v>4600.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C9" t="n">
-        <v>3375.0</v>
+        <v>4400.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>3300.0</v>
+        <v>4000.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>3250.0</v>
+        <v>3850.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" t="n">
-        <v>3000.0</v>
+        <v>3800.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C13" t="n">
-        <v>2650.0</v>
+        <v>3800.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C14" t="n">
-        <v>2500.0</v>
+        <v>3675.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C15" t="n">
-        <v>2500.0</v>
+        <v>2950.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" t="n">
-        <v>2200.0</v>
+        <v>2950.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C17" t="n">
-        <v>2050.0</v>
+        <v>2900.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
-        <v>1600.0</v>
+        <v>2500.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C19" t="n">
-        <v>1350.0</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>1000.0</v>
+        <v>1550.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C21" t="n">
-        <v>1000.0</v>
+        <v>1500.0</v>
       </c>
     </row>
   </sheetData>
@@ -703,10 +703,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>13375.0</v>
+        <v>17325.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1215.909090909091</v>
+        <v>1575.0</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C3" t="n">
-        <v>9675.0</v>
+        <v>11750.0</v>
       </c>
       <c r="D3" t="n">
-        <v>879.5454545454545</v>
+        <v>1068.1818181818182</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>9650.0</v>
+        <v>11475.0</v>
       </c>
       <c r="D4" t="n">
-        <v>877.2727272727273</v>
+        <v>1043.1818181818182</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>9000.0</v>
+        <v>10650.0</v>
       </c>
       <c r="D5" t="n">
-        <v>818.1818181818181</v>
+        <v>968.1818181818181</v>
       </c>
     </row>
     <row r="6">
@@ -759,10 +759,10 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>8975.0</v>
+        <v>10125.0</v>
       </c>
       <c r="D6" t="n">
-        <v>815.9090909090909</v>
+        <v>920.4545454545455</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
-        <v>6950.0</v>
+        <v>9300.0</v>
       </c>
       <c r="D7" t="n">
-        <v>631.8181818181819</v>
+        <v>845.4545454545455</v>
       </c>
     </row>
     <row r="8">
@@ -787,10 +787,10 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>6775.0</v>
+        <v>8575.0</v>
       </c>
       <c r="D8" t="n">
-        <v>615.9090909090909</v>
+        <v>779.5454545454545</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>6500.0</v>
+        <v>8350.0</v>
       </c>
       <c r="D9" t="n">
-        <v>590.9090909090909</v>
+        <v>759.0909090909091</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>6400.0</v>
+        <v>8300.0</v>
       </c>
       <c r="D10" t="n">
-        <v>581.8181818181819</v>
+        <v>754.5454545454545</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>6350.0</v>
+        <v>8200.0</v>
       </c>
       <c r="D11" t="n">
-        <v>577.2727272727273</v>
+        <v>745.4545454545455</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C12" t="n">
-        <v>6100.0</v>
+        <v>7750.0</v>
       </c>
       <c r="D12" t="n">
-        <v>554.5454545454545</v>
+        <v>704.5454545454545</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C13" t="n">
-        <v>5550.0</v>
+        <v>7650.0</v>
       </c>
       <c r="D13" t="n">
-        <v>504.54545454545456</v>
+        <v>695.4545454545455</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>5500.0</v>
+        <v>7400.0</v>
       </c>
       <c r="D14" t="n">
-        <v>500.0</v>
+        <v>672.7272727272727</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" t="n">
-        <v>5400.0</v>
+        <v>7000.0</v>
       </c>
       <c r="D15" t="n">
-        <v>490.90909090909093</v>
+        <v>636.3636363636364</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C16" t="n">
-        <v>5000.0</v>
+        <v>6800.0</v>
       </c>
       <c r="D16" t="n">
-        <v>454.54545454545456</v>
+        <v>618.1818181818181</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>4750.0</v>
+        <v>6550.0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.8181818181818</v>
+        <v>595.4545454545455</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>3950.0</v>
+        <v>6350.0</v>
       </c>
       <c r="D18" t="n">
-        <v>359.09090909090907</v>
+        <v>577.2727272727273</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>3900.0</v>
+        <v>5950.0</v>
       </c>
       <c r="D19" t="n">
-        <v>354.54545454545456</v>
+        <v>540.9090909090909</v>
       </c>
     </row>
     <row r="20">
@@ -955,10 +955,10 @@
         <v>33</v>
       </c>
       <c r="C20" t="n">
-        <v>3900.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.54545454545456</v>
+        <v>454.54545454545456</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>2600.0</v>
+        <v>2900.0</v>
       </c>
       <c r="D21" t="n">
-        <v>236.36363636363637</v>
+        <v>263.6363636363636</v>
       </c>
     </row>
   </sheetData>
